--- a/dashboard/data/Databank.xlsx
+++ b/dashboard/data/Databank.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -672,7 +672,7 @@
         <v>15.44949722869756</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3660566742484825</v>
+        <v>0.3660566742484824</v>
       </c>
       <c r="K3" t="n">
         <v>1.375286583998318</v>
@@ -681,7 +681,7 @@
         <v>316.7033997655334</v>
       </c>
       <c r="M3" t="n">
-        <v>18.86992414157695</v>
+        <v>18.86992414157696</v>
       </c>
       <c r="N3" t="n">
         <v>7.526701183431951</v>
@@ -698,13 +698,13 @@
         <v>0.579872351735697</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03073058057489463</v>
+        <v>0.03073058057489462</v>
       </c>
       <c r="U3" t="n">
         <v>0.01777543632879936</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01295514424609528</v>
+        <v>0.01295514424609526</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
@@ -750,7 +750,7 @@
         <v>16.98448384262995</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3330282229658988</v>
+        <v>0.3330282229658986</v>
       </c>
       <c r="K4" t="n">
         <v>1.201876678066041</v>
@@ -759,7 +759,7 @@
         <v>216.9230769230769</v>
       </c>
       <c r="M4" t="n">
-        <v>13.86975728148907</v>
+        <v>13.86975728148908</v>
       </c>
       <c r="N4" t="n">
         <v>10.47091503267974</v>
@@ -771,10 +771,10 @@
         <v>35.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7833748259464463</v>
+        <v>0.7833748259464465</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4251951342033907</v>
+        <v>0.4251951342033906</v>
       </c>
       <c r="S4" t="n">
         <v>0.5117146212062872</v>
@@ -786,7 +786,7 @@
         <v>0.009950185041419854</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02695082003825436</v>
+        <v>0.02695082003825435</v>
       </c>
       <c r="W4" t="n">
         <v>157</v>
@@ -798,7 +798,7 @@
         <v>5.694166666666667</v>
       </c>
       <c r="Z4" t="n">
-        <v>58189.47949994061</v>
+        <v>58189.47949994059</v>
       </c>
     </row>
     <row r="5">
@@ -833,10 +833,10 @@
         <v>23859</v>
       </c>
       <c r="I5" t="n">
-        <v>17.12629865786187</v>
+        <v>17.12629865786188</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3307114046138761</v>
+        <v>0.330711404613876</v>
       </c>
       <c r="K5" t="n">
         <v>1.398059339158471</v>
@@ -858,7 +858,7 @@
         <v>0.7818656297002208</v>
       </c>
       <c r="R5" t="n">
-        <v>0.422881190011312</v>
+        <v>0.4228811900113119</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -874,7 +874,7 @@
         <v>5.566666666666666</v>
       </c>
       <c r="Z5" t="n">
-        <v>53222.18275336444</v>
+        <v>53222.18275336442</v>
       </c>
     </row>
     <row r="6">
@@ -912,7 +912,7 @@
         <v>17.06146751190997</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3314974084739918</v>
+        <v>0.3314974084739917</v>
       </c>
       <c r="K6" t="n">
         <v>1.445998550617744</v>
@@ -936,7 +936,7 @@
         <v>0.7679023275231903</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4317085313765291</v>
+        <v>0.431708531376529</v>
       </c>
       <c r="S6" t="n">
         <v>0.5407899383500721</v>
@@ -948,7 +948,7 @@
         <v>0.01505404521353303</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02921086162158479</v>
+        <v>0.02921086162158478</v>
       </c>
       <c r="W6" t="n">
         <v>261</v>
@@ -993,10 +993,10 @@
         <v>51050</v>
       </c>
       <c r="I7" t="n">
-        <v>17.59993171711697</v>
+        <v>17.59993171711698</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3213320708112211</v>
+        <v>0.3213320708112209</v>
       </c>
       <c r="K7" t="n">
         <v>1.601777045565985</v>
@@ -1013,10 +1013,10 @@
         <v>44.83</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6929090173696568</v>
+        <v>0.6929090173696569</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4639288993826977</v>
+        <v>0.4639288993826975</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1032,7 +1032,7 @@
         <v>4.366666666666666</v>
       </c>
       <c r="Z7" t="n">
-        <v>157238.563120375</v>
+        <v>157238.5631203749</v>
       </c>
     </row>
     <row r="8">
@@ -1070,7 +1070,7 @@
         <v>17.29617641863968</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3272387567273355</v>
+        <v>0.3272387567273354</v>
       </c>
       <c r="K8" t="n">
         <v>1.727052852505587</v>
@@ -1137,10 +1137,10 @@
         <v>61090</v>
       </c>
       <c r="I9" t="n">
-        <v>16.79256880289362</v>
+        <v>16.79256880289363</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3368090181855647</v>
+        <v>0.3368090181855646</v>
       </c>
       <c r="K9" t="n">
         <v>1.4459</v>
@@ -1205,10 +1205,10 @@
         <v>23859</v>
       </c>
       <c r="I10" t="n">
-        <v>16.78368909556014</v>
+        <v>16.78368909556015</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3369711685077701</v>
+        <v>0.33697116850777</v>
       </c>
       <c r="K10" t="n">
         <v>1.357753742369032</v>
@@ -1229,16 +1229,16 @@
         <v>35.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7820309149891691</v>
+        <v>0.7820309149891692</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4309353825998094</v>
+        <v>0.4309353825998092</v>
       </c>
       <c r="S10" t="n">
         <v>0.5256380337272604</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03953058041752208</v>
+        <v>0.03953058041752207</v>
       </c>
       <c r="U10" t="n">
         <v>0.01049902739517181</v>
@@ -1256,7 +1256,7 @@
         <v>5.719074074074074</v>
       </c>
       <c r="Z10" t="n">
-        <v>58881.68078132618</v>
+        <v>58881.68078132617</v>
       </c>
     </row>
     <row r="11">
@@ -1291,10 +1291,10 @@
         <v>23725</v>
       </c>
       <c r="I11" t="n">
-        <v>14.70307341442506</v>
+        <v>14.70307341442507</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3847071597161745</v>
+        <v>0.3847071597161743</v>
       </c>
       <c r="K11" t="n">
         <v>0.8913640923736511</v>
@@ -1313,10 +1313,10 @@
         <v>35.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8157447946259122</v>
+        <v>0.8157447946259123</v>
       </c>
       <c r="R11" t="n">
-        <v>0.471585611643779</v>
+        <v>0.4715856116437788</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1332,7 +1332,7 @@
         <v>11.62518188580831</v>
       </c>
       <c r="Z11" t="n">
-        <v>66644.42727505849</v>
+        <v>66644.42727505846</v>
       </c>
     </row>
     <row r="12">
@@ -1370,7 +1370,7 @@
         <v>14.96467324159407</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3779781871295746</v>
+        <v>0.3779781871295745</v>
       </c>
       <c r="K12" t="n">
         <v>0.8462065407310719</v>
@@ -1400,13 +1400,13 @@
         <v>0.6751747691526191</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03685852419268531</v>
+        <v>0.0368585241926853</v>
       </c>
       <c r="U12" t="n">
         <v>0.01732239406410658</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01953613012857874</v>
+        <v>0.01953613012857873</v>
       </c>
       <c r="W12" t="n">
         <v>191</v>
@@ -1418,7 +1418,7 @@
         <v>10.96088452380952</v>
       </c>
       <c r="Z12" t="n">
-        <v>62653.34724014053</v>
+        <v>62653.34724014051</v>
       </c>
     </row>
     <row r="13">
@@ -1453,10 +1453,10 @@
         <v>23700</v>
       </c>
       <c r="I13" t="n">
-        <v>17.4681003679791</v>
+        <v>17.46810036797911</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3237674736889553</v>
+        <v>0.3237674736889551</v>
       </c>
       <c r="K13" t="n">
         <v>1.10484603787207</v>
@@ -1477,22 +1477,22 @@
         <v>35.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7684932315555086</v>
+        <v>0.7684932315555087</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4213803942757023</v>
+        <v>0.4213803942757021</v>
       </c>
       <c r="S13" t="n">
         <v>0.6509550623209971</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04073603532215879</v>
+        <v>0.04073603532215878</v>
       </c>
       <c r="U13" t="n">
         <v>0.01610191472622672</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02463412059593207</v>
+        <v>0.02463412059593206</v>
       </c>
       <c r="W13" t="n">
         <v>196</v>
@@ -1504,7 +1504,7 @@
         <v>5.427586206896552</v>
       </c>
       <c r="Z13" t="n">
-        <v>63904.1570481465</v>
+        <v>63904.15704814646</v>
       </c>
     </row>
     <row r="14">
@@ -1539,10 +1539,10 @@
         <v>97530</v>
       </c>
       <c r="I14" t="n">
-        <v>17.06347192741687</v>
+        <v>17.06347192741688</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3314411625115518</v>
+        <v>0.3314411625115516</v>
       </c>
       <c r="K14" t="n">
         <v>1.40477492852807</v>
@@ -1566,19 +1566,19 @@
         <v>0.7652194894427563</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4331491048656753</v>
+        <v>0.4331491048656751</v>
       </c>
       <c r="S14" t="n">
         <v>0.5703063572795277</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02983049032437017</v>
+        <v>0.02983049032437016</v>
       </c>
       <c r="U14" t="n">
         <v>0.01286975748820448</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01696073283616569</v>
+        <v>0.01696073283616568</v>
       </c>
       <c r="W14" t="n">
         <v>265</v>
@@ -1628,7 +1628,7 @@
         <v>16.98916597013821</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3329032171369345</v>
+        <v>0.3329032171369344</v>
       </c>
       <c r="K15" t="n">
         <v>1.229479581294727</v>
@@ -1649,22 +1649,22 @@
         <v>60.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7802536469189285</v>
+        <v>0.7802536469189286</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4266681792075788</v>
+        <v>0.4266681792075787</v>
       </c>
       <c r="S15" t="n">
         <v>0.5608796097445846</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03023098118544442</v>
+        <v>0.03023098118544441</v>
       </c>
       <c r="U15" t="n">
         <v>0.01244781833910668</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01778316284633774</v>
+        <v>0.01778316284633773</v>
       </c>
       <c r="W15" t="n">
         <v>292</v>
@@ -1676,7 +1676,7 @@
         <v>5.050909090909091</v>
       </c>
       <c r="Z15" t="n">
-        <v>127636.338025989</v>
+        <v>127636.3380259889</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         <v>15.06830812606609</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3753240765649378</v>
+        <v>0.3753240765649376</v>
       </c>
       <c r="K17" t="n">
         <v>1.139953161890594</v>
@@ -1773,7 +1773,7 @@
         <v>323.6363636363636</v>
       </c>
       <c r="M17" t="n">
-        <v>20.63667800776629</v>
+        <v>20.6366780077663</v>
       </c>
       <c r="N17" t="n">
         <v>9.464023702031604</v>
@@ -1788,19 +1788,19 @@
         <v>0.8172613556825146</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4592499122922808</v>
+        <v>0.4592499122922804</v>
       </c>
       <c r="S17" t="n">
         <v>0.5384931625607633</v>
       </c>
       <c r="T17" t="n">
-        <v>0.02609499147407053</v>
+        <v>0.02609499147407052</v>
       </c>
       <c r="U17" t="n">
         <v>0.01219115091854304</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01390384055552749</v>
+        <v>0.01390384055552748</v>
       </c>
       <c r="W17" t="n">
         <v>304</v>
@@ -1812,7 +1812,7 @@
         <v>9.151666666666667</v>
       </c>
       <c r="Z17" t="n">
-        <v>145592.1614376467</v>
+        <v>145592.1614376465</v>
       </c>
     </row>
     <row r="18">
@@ -1850,7 +1850,7 @@
         <v>17.43840732807625</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3243236053677547</v>
+        <v>0.3243236053677546</v>
       </c>
       <c r="K18" t="n">
         <v>1.789791513631841</v>
@@ -1867,10 +1867,10 @@
         <v>28.45</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7336925079052894</v>
+        <v>0.7336925079052895</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4420536703364697</v>
+        <v>0.4420536703364695</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1886,7 +1886,7 @@
         <v>4.605</v>
       </c>
       <c r="Z18" t="n">
-        <v>56746.0021118581</v>
+        <v>56746.00211185809</v>
       </c>
     </row>
     <row r="19">
@@ -1915,10 +1915,10 @@
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>22.4869707120729</v>
+        <v>22.48697071207291</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2519712186447382</v>
+        <v>0.2519712186447381</v>
       </c>
       <c r="K19" t="n">
         <v>2.491201944623691</v>
@@ -1952,7 +1952,7 @@
         <v>1.153636363636364</v>
       </c>
       <c r="Z19" t="n">
-        <v>69462.84555388209</v>
+        <v>69462.84555388207</v>
       </c>
     </row>
     <row r="20">
@@ -1987,10 +1987,10 @@
         <v>26024</v>
       </c>
       <c r="I20" t="n">
-        <v>17.49680933025547</v>
+        <v>17.49680933025548</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3232650946410691</v>
+        <v>0.323265094641069</v>
       </c>
       <c r="K20" t="n">
         <v>1.275189262798983</v>
@@ -2014,19 +2014,19 @@
         <v>0.7672284054559056</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4213590631018348</v>
+        <v>0.4213590631018346</v>
       </c>
       <c r="S20" t="n">
         <v>0.4792889880898488</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03085124374101027</v>
+        <v>0.03085124374101026</v>
       </c>
       <c r="U20" t="n">
         <v>0.008890981115314956</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02196026262569532</v>
+        <v>0.02196026262569531</v>
       </c>
       <c r="W20" t="n">
         <v>125</v>
@@ -2038,7 +2038,7 @@
         <v>5.227987421383648</v>
       </c>
       <c r="Z20" t="n">
-        <v>52735.91179498754</v>
+        <v>52735.91179498752</v>
       </c>
     </row>
     <row r="21">
@@ -2073,10 +2073,10 @@
         <v>90301</v>
       </c>
       <c r="I21" t="n">
-        <v>21.3258022372695</v>
+        <v>21.32580223726951</v>
       </c>
       <c r="J21" t="n">
-        <v>0.265184896645752</v>
+        <v>0.2651848966457518</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
@@ -2100,13 +2100,13 @@
         <v>0.4261428126703143</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03863450676709624</v>
+        <v>0.03863450676709623</v>
       </c>
       <c r="U21" t="n">
         <v>0.01036334135443588</v>
       </c>
       <c r="V21" t="n">
-        <v>0.02827116541266036</v>
+        <v>0.02827116541266034</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
@@ -2227,10 +2227,10 @@
         <v>20100</v>
       </c>
       <c r="I23" t="n">
-        <v>18.00126385619849</v>
+        <v>18.0012638561985</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3141610114030782</v>
+        <v>0.314161011403078</v>
       </c>
       <c r="K23" t="n">
         <v>1.485729952148732</v>
@@ -2252,7 +2252,7 @@
         <v>0.7561408830443964</v>
       </c>
       <c r="R23" t="n">
-        <v>0.4154797923940739</v>
+        <v>0.4154797923940737</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -2268,7 +2268,7 @@
         <v>5.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>53907.19238070866</v>
+        <v>53907.19238070862</v>
       </c>
     </row>
     <row r="24">
@@ -2306,7 +2306,7 @@
         <v>17.33353107822624</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3263326220419078</v>
+        <v>0.3263326220419077</v>
       </c>
       <c r="K24" t="n">
         <v>1.698569474237269</v>
@@ -2327,22 +2327,22 @@
         <v>35.02222222222222</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7618193641857841</v>
+        <v>0.7618193641857842</v>
       </c>
       <c r="R24" t="n">
-        <v>0.428364075910884</v>
+        <v>0.4283640759108839</v>
       </c>
       <c r="S24" t="n">
         <v>0.4311057075475181</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03680887107709471</v>
+        <v>0.03680887107709469</v>
       </c>
       <c r="U24" t="n">
         <v>0.007451031201009908</v>
       </c>
       <c r="V24" t="n">
-        <v>0.02935783987608479</v>
+        <v>0.02935783987608478</v>
       </c>
       <c r="W24" t="n">
         <v>113</v>
@@ -2390,7 +2390,7 @@
         <v>17.09399611096489</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3309594651029379</v>
+        <v>0.3309594651029378</v>
       </c>
       <c r="K25" t="n">
         <v>1.609267822496967</v>
@@ -2407,10 +2407,10 @@
         <v>47.57</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7916738670820095</v>
+        <v>0.7916738670820096</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4180235528449732</v>
+        <v>0.418023552844973</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>15.24564965479821</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3709866079703445</v>
+        <v>0.3709866079703444</v>
       </c>
       <c r="K26" t="n">
         <v>1.256752661572447</v>
@@ -2484,7 +2484,7 @@
         <v>0.8329779853683159</v>
       </c>
       <c r="R26" t="n">
-        <v>0.4453756348857719</v>
+        <v>0.4453756348857718</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2533,10 +2533,10 @@
         <v>126356</v>
       </c>
       <c r="I27" t="n">
-        <v>15.36201678228015</v>
+        <v>15.36201678228016</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3681711545203625</v>
+        <v>0.3681711545203624</v>
       </c>
       <c r="K27" t="n">
         <v>1.152019941095649</v>
@@ -2545,7 +2545,7 @@
         <v>306.7857142857143</v>
       </c>
       <c r="M27" t="n">
-        <v>20.33329942796322</v>
+        <v>20.33329942796323</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2556,7 +2556,7 @@
         <v>0.8248244438340584</v>
       </c>
       <c r="R27" t="n">
-        <v>0.4463647886726108</v>
+        <v>0.4463647886726107</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2642,7 +2642,7 @@
         <v>1.045</v>
       </c>
       <c r="Z28" t="n">
-        <v>59227.28086090866</v>
+        <v>59227.28086090864</v>
       </c>
     </row>
     <row r="29">
@@ -2677,10 +2677,10 @@
         <v>26024</v>
       </c>
       <c r="I29" t="n">
-        <v>17.72499222979877</v>
+        <v>17.72499222979878</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3190913406792529</v>
+        <v>0.3190913406792528</v>
       </c>
       <c r="K29" t="n">
         <v>1.119767569977147</v>
@@ -2689,7 +2689,7 @@
         <v>217.6984126984127</v>
       </c>
       <c r="M29" t="n">
-        <v>15.64430077370058</v>
+        <v>15.64430077370059</v>
       </c>
       <c r="N29" t="n">
         <v>10.28028972712681</v>
@@ -2701,22 +2701,22 @@
         <v>35.79</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.761018288428509</v>
+        <v>0.7610182884285092</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4193087152203254</v>
+        <v>0.4193087152203251</v>
       </c>
       <c r="S29" t="n">
         <v>0.5404022118139264</v>
       </c>
       <c r="T29" t="n">
-        <v>0.03454680351546196</v>
+        <v>0.03454680351546194</v>
       </c>
       <c r="U29" t="n">
         <v>0.01130287752210999</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02324392599335197</v>
+        <v>0.02324392599335195</v>
       </c>
       <c r="W29" t="n">
         <v>163</v>
@@ -2728,7 +2728,7 @@
         <v>5.132291666666666</v>
       </c>
       <c r="Z29" t="n">
-        <v>54584.23347610084</v>
+        <v>54584.23347610081</v>
       </c>
     </row>
     <row r="30">
@@ -2766,7 +2766,7 @@
         <v>17.71642473670745</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3192487225991766</v>
+        <v>0.3192487225991764</v>
       </c>
       <c r="K30" t="n">
         <v>1.044394367241605</v>
@@ -2775,7 +2775,7 @@
         <v>224.8306878306878</v>
       </c>
       <c r="M30" t="n">
-        <v>15.63673899668767</v>
+        <v>15.63673899668768</v>
       </c>
       <c r="N30" t="n">
         <v>10.28028972712681</v>
@@ -2787,22 +2787,22 @@
         <v>35.79</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7286528646143199</v>
+        <v>0.7286528646143201</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4381534170466246</v>
+        <v>0.4381534170466243</v>
       </c>
       <c r="S30" t="n">
         <v>0.5404022118139264</v>
       </c>
       <c r="T30" t="n">
-        <v>0.03456384265620741</v>
+        <v>0.03456384265620739</v>
       </c>
       <c r="U30" t="n">
         <v>0.01130287752210999</v>
       </c>
       <c r="V30" t="n">
-        <v>0.02326096513409742</v>
+        <v>0.0232609651340974</v>
       </c>
       <c r="W30" t="n">
         <v>175</v>
@@ -2814,7 +2814,7 @@
         <v>5.144374999999999</v>
       </c>
       <c r="Z30" t="n">
-        <v>64729.8892720201</v>
+        <v>64729.88927202008</v>
       </c>
     </row>
     <row r="31">
@@ -2849,10 +2849,10 @@
         <v>26024</v>
       </c>
       <c r="I31" t="n">
-        <v>17.73490260050415</v>
+        <v>17.73490260050416</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3189133396107299</v>
+        <v>0.3189133396107298</v>
       </c>
       <c r="K31" t="n">
         <v>1.005997360734154</v>
@@ -2861,7 +2861,7 @@
         <v>203.0772727272727</v>
       </c>
       <c r="M31" t="n">
-        <v>13.16126706340616</v>
+        <v>13.16126706340617</v>
       </c>
       <c r="N31" t="n">
         <v>10.28028972712681</v>
@@ -2873,22 +2873,22 @@
         <v>35.79</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.7590907840056417</v>
+        <v>0.7590907840056418</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4201392042248431</v>
+        <v>0.4201392042248429</v>
       </c>
       <c r="S31" t="n">
         <v>0.582281832132457</v>
       </c>
       <c r="T31" t="n">
-        <v>0.04424690196291614</v>
+        <v>0.04424690196291611</v>
       </c>
       <c r="U31" t="n">
         <v>0.01312264153321329</v>
       </c>
       <c r="V31" t="n">
-        <v>0.03112426042970285</v>
+        <v>0.03112426042970283</v>
       </c>
       <c r="W31" t="n">
         <v>179</v>
@@ -2900,7 +2900,7 @@
         <v>5.1359375</v>
       </c>
       <c r="Z31" t="n">
-        <v>55164.22753360885</v>
+        <v>55164.22753360882</v>
       </c>
     </row>
     <row r="32">
@@ -2938,7 +2938,7 @@
         <v>17.41408489474545</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3247573528569764</v>
+        <v>0.3247573528569763</v>
       </c>
       <c r="K32" t="n">
         <v>1.639907945335394</v>
@@ -2962,19 +2962,19 @@
         <v>0.7844941178526791</v>
       </c>
       <c r="R32" t="n">
-        <v>0.4139717816301645</v>
+        <v>0.4139717816301644</v>
       </c>
       <c r="S32" t="n">
         <v>0.5559726764356511</v>
       </c>
       <c r="T32" t="n">
-        <v>0.03649442669593517</v>
+        <v>0.03649442669593516</v>
       </c>
       <c r="U32" t="n">
         <v>0.01769275313653476</v>
       </c>
       <c r="V32" t="n">
-        <v>0.01880167355940041</v>
+        <v>0.0188016735594004</v>
       </c>
       <c r="W32" t="n">
         <v>405</v>
@@ -2986,7 +2986,7 @@
         <v>5.01875</v>
       </c>
       <c r="Z32" t="n">
-        <v>234712.4624917689</v>
+        <v>234712.4624917688</v>
       </c>
     </row>
     <row r="33">
@@ -3019,10 +3019,10 @@
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>17.50092047553409</v>
+        <v>17.5009204755341</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3231644522448556</v>
+        <v>0.3231644522448554</v>
       </c>
       <c r="K33" t="n">
         <v>2.226865704690404</v>
@@ -3044,7 +3044,7 @@
         <v>0.7903112100875538</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4090470358271433</v>
+        <v>0.4090470358271431</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -3060,7 +3060,7 @@
         <v>4.6275</v>
       </c>
       <c r="Z33" t="n">
-        <v>199548.9932938909</v>
+        <v>199548.9932938908</v>
       </c>
     </row>
     <row r="34">
@@ -3165,10 +3165,10 @@
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>17.06938157570028</v>
+        <v>17.06938157570029</v>
       </c>
       <c r="J35" t="n">
-        <v>0.331311397375335</v>
+        <v>0.3313113973753349</v>
       </c>
       <c r="K35" t="n">
         <v>1.335323623930043</v>
@@ -3177,7 +3177,7 @@
         <v>275.6977777777777</v>
       </c>
       <c r="M35" t="n">
-        <v>17.44975671545913</v>
+        <v>17.44975671545915</v>
       </c>
       <c r="N35" t="n">
         <v>17.21442922374429</v>
@@ -3192,19 +3192,19 @@
         <v>0.7771188768530045</v>
       </c>
       <c r="R35" t="n">
-        <v>0.4263329681515433</v>
+        <v>0.4263329681515431</v>
       </c>
       <c r="S35" t="n">
         <v>0.7942466806223587</v>
       </c>
       <c r="T35" t="n">
-        <v>0.04551620366825616</v>
+        <v>0.04551620366825614</v>
       </c>
       <c r="U35" t="n">
         <v>0.01458069850331794</v>
       </c>
       <c r="V35" t="n">
-        <v>0.03093550516493822</v>
+        <v>0.03093550516493819</v>
       </c>
       <c r="W35" t="n">
         <v>249</v>
@@ -3216,7 +3216,7 @@
         <v>5.1</v>
       </c>
       <c r="Z35" t="n">
-        <v>115566.7293916298</v>
+        <v>115566.7293916297</v>
       </c>
     </row>
     <row r="36">
@@ -3249,10 +3249,10 @@
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>16.81481451040719</v>
+        <v>16.8148145104072</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3364433769825322</v>
+        <v>0.3364433769825321</v>
       </c>
       <c r="K36" t="n">
         <v>1.45127382838302</v>
@@ -3261,7 +3261,7 @@
         <v>289.2454545454545</v>
       </c>
       <c r="M36" t="n">
-        <v>20.29266290898792</v>
+        <v>20.29266290898793</v>
       </c>
       <c r="N36" t="n">
         <v>9.242461430575036</v>
@@ -3276,19 +3276,19 @@
         <v>0.8002115638803728</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4205173777927553</v>
+        <v>0.4205173777927551</v>
       </c>
       <c r="S36" t="n">
         <v>0.7002416387129491</v>
       </c>
       <c r="T36" t="n">
-        <v>0.03451904657142538</v>
+        <v>0.03451904657142537</v>
       </c>
       <c r="U36" t="n">
         <v>0.02119047121563732</v>
       </c>
       <c r="V36" t="n">
-        <v>0.01332857535578807</v>
+        <v>0.01332857535578806</v>
       </c>
       <c r="W36" t="n">
         <v>329</v>
@@ -3516,7 +3516,7 @@
         <v>1.026923076923077</v>
       </c>
       <c r="Z39" t="n">
-        <v>73447.48894635512</v>
+        <v>73447.48894635511</v>
       </c>
     </row>
     <row r="40">
@@ -3554,7 +3554,7 @@
         <v>15.7290159675477</v>
       </c>
       <c r="J40" t="n">
-        <v>0.359547726986659</v>
+        <v>0.3595477269866589</v>
       </c>
       <c r="K40" t="n">
         <v>0.8953661112939827</v>
@@ -3563,7 +3563,7 @@
         <v>214.5952380952381</v>
       </c>
       <c r="M40" t="n">
-        <v>18.86798492370013</v>
+        <v>18.86798492370014</v>
       </c>
       <c r="N40" t="n">
         <v>10.15942047244095</v>
@@ -3578,19 +3578,19 @@
         <v>0.8014892422095463</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4486005365736526</v>
+        <v>0.4486005365736525</v>
       </c>
       <c r="S40" t="n">
         <v>0.5545384462092253</v>
       </c>
       <c r="T40" t="n">
-        <v>0.02939071005607644</v>
+        <v>0.02939071005607643</v>
       </c>
       <c r="U40" t="n">
         <v>0.01204355021381798</v>
       </c>
       <c r="V40" t="n">
-        <v>0.01734715984225846</v>
+        <v>0.01734715984225845</v>
       </c>
       <c r="W40" t="n">
         <v>171</v>
@@ -3602,7 +3602,7 @@
         <v>8.435416666666667</v>
       </c>
       <c r="Z40" t="n">
-        <v>55505.42800502713</v>
+        <v>55505.4280050271</v>
       </c>
     </row>
     <row r="41">
@@ -3640,14 +3640,14 @@
         <v>15.75412077408917</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3589721900204884</v>
+        <v>0.3589721900204883</v>
       </c>
       <c r="K41" t="n">
         <v>0.8889188737585035</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>18.75509705334182</v>
+        <v>18.75509705334183</v>
       </c>
       <c r="N41" t="n">
         <v>10.15942047244095</v>
@@ -3662,7 +3662,7 @@
         <v>0.8192808601885971</v>
       </c>
       <c r="R41" t="n">
-        <v>0.4381554003371571</v>
+        <v>0.438155400337157</v>
       </c>
       <c r="S41" t="n">
         <v>0.5925830706747321</v>
@@ -3674,7 +3674,7 @@
         <v>0.01375275434122439</v>
       </c>
       <c r="V41" t="n">
-        <v>0.01784314606759582</v>
+        <v>0.01784314606759581</v>
       </c>
       <c r="W41" t="n">
         <v>178</v>
@@ -3686,7 +3686,7 @@
         <v>8.447222222222223</v>
       </c>
       <c r="Z41" t="n">
-        <v>49433.32369637736</v>
+        <v>49433.32369637735</v>
       </c>
     </row>
     <row r="42">
@@ -3733,7 +3733,7 @@
         <v>211.1230769230769</v>
       </c>
       <c r="M42" t="n">
-        <v>12.22462575870084</v>
+        <v>12.22462575870085</v>
       </c>
       <c r="N42" t="n">
         <v>5.988823594024605</v>
@@ -3756,7 +3756,7 @@
         <v>0.01449150566155796</v>
       </c>
       <c r="V42" t="n">
-        <v>0.0237282131256938</v>
+        <v>0.02372821312569379</v>
       </c>
       <c r="W42" t="n">
         <v>109</v>
@@ -3768,7 +3768,7 @@
         <v>1.045</v>
       </c>
       <c r="Z42" t="n">
-        <v>52000.1441749647</v>
+        <v>52000.14417496469</v>
       </c>
     </row>
     <row r="43">
@@ -3803,10 +3803,10 @@
         <v>20100</v>
       </c>
       <c r="I43" t="n">
-        <v>18.01149478558387</v>
+        <v>18.01149478558388</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3139826622719162</v>
+        <v>0.3139826622719161</v>
       </c>
       <c r="K43" t="n">
         <v>1.385801233313683</v>
@@ -3815,7 +3815,7 @@
         <v>184.5505319148936</v>
       </c>
       <c r="M43" t="n">
-        <v>12.41007311177945</v>
+        <v>12.41007311177946</v>
       </c>
       <c r="N43" t="n">
         <v>9.16140597539543</v>
@@ -3827,22 +3827,22 @@
         <v>28.88</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7507617447514432</v>
+        <v>0.7507617447514433</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4182191598730574</v>
+        <v>0.4182191598730572</v>
       </c>
       <c r="S43" t="n">
         <v>0.6368630018171373</v>
       </c>
       <c r="T43" t="n">
-        <v>0.05131838027354877</v>
+        <v>0.05131838027354876</v>
       </c>
       <c r="U43" t="n">
         <v>0.01761530027348244</v>
       </c>
       <c r="V43" t="n">
-        <v>0.03370308000006633</v>
+        <v>0.0337030800000663</v>
       </c>
       <c r="W43" t="n">
         <v>143</v>
@@ -3854,7 +3854,7 @@
         <v>5.1</v>
       </c>
       <c r="Z43" t="n">
-        <v>55491.06311528273</v>
+        <v>55491.06311528271</v>
       </c>
     </row>
     <row r="44">
@@ -3889,10 +3889,10 @@
         <v>194851.4285714286</v>
       </c>
       <c r="I44" t="n">
-        <v>17.49683082336579</v>
+        <v>17.4968308233658</v>
       </c>
       <c r="J44" t="n">
-        <v>0.3232910205483346</v>
+        <v>0.3232910205483345</v>
       </c>
       <c r="K44" t="n">
         <v>1.766507941133399</v>
@@ -3913,22 +3913,22 @@
         <v>59.60000000000001</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.7524350999958356</v>
+        <v>0.7524350999958357</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4298215664045603</v>
+        <v>0.42982156640456</v>
       </c>
       <c r="S44" t="n">
         <v>0.601358201042643</v>
       </c>
       <c r="T44" t="n">
-        <v>0.04882314477410078</v>
+        <v>0.04882314477410075</v>
       </c>
       <c r="U44" t="n">
         <v>0.02069926845502964</v>
       </c>
       <c r="V44" t="n">
-        <v>0.02812387631907114</v>
+        <v>0.02812387631907112</v>
       </c>
       <c r="W44" t="n">
         <v>394</v>
@@ -3940,7 +3940,7 @@
         <v>4.620535714285714</v>
       </c>
       <c r="Z44" t="n">
-        <v>247902.5795286623</v>
+        <v>247902.5795286622</v>
       </c>
     </row>
     <row r="45">
@@ -3976,7 +3976,7 @@
         <v>17.36719498633941</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3257661737127919</v>
+        <v>0.3257661737127918</v>
       </c>
       <c r="K45" t="n">
         <v>1.562825663634453</v>
@@ -3985,7 +3985,7 @@
         <v>329.3181818181818</v>
       </c>
       <c r="M45" t="n">
-        <v>16.94624969050644</v>
+        <v>16.94624969050645</v>
       </c>
       <c r="N45" t="n">
         <v>7.813733686105675</v>
@@ -4000,13 +4000,13 @@
         <v>0.7434798070402058</v>
       </c>
       <c r="R45" t="n">
-        <v>0.4381385303883507</v>
+        <v>0.4381385303883506</v>
       </c>
       <c r="S45" t="n">
         <v>0.6459873002395184</v>
       </c>
       <c r="T45" t="n">
-        <v>0.03813908253154627</v>
+        <v>0.03813908253154626</v>
       </c>
       <c r="U45" t="n">
         <v>0.02129728718926171</v>
@@ -4024,7 +4024,7 @@
         <v>4.54</v>
       </c>
       <c r="Z45" t="n">
-        <v>254685.3838219231</v>
+        <v>254685.383821923</v>
       </c>
     </row>
     <row r="46">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>17.58253515506082</v>
+        <v>17.58253515506083</v>
       </c>
       <c r="J46" t="n">
         <v>0.3219165041227023</v>
@@ -4096,7 +4096,7 @@
         <v>4.7025</v>
       </c>
       <c r="Z46" t="n">
-        <v>73298.21865369655</v>
+        <v>73298.21865369652</v>
       </c>
     </row>
     <row r="47">
@@ -4129,10 +4129,10 @@
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>17.11208018153209</v>
+        <v>17.1120801815321</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3306136802785303</v>
+        <v>0.3306136802785302</v>
       </c>
       <c r="K47" t="n">
         <v>1.402339585121362</v>
@@ -4141,7 +4141,7 @@
         <v>258.5660018993353</v>
       </c>
       <c r="M47" t="n">
-        <v>15.35194683664891</v>
+        <v>15.35194683664892</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -4149,7 +4149,7 @@
         <v>47.57</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.7877758976142176</v>
+        <v>0.7877758976142177</v>
       </c>
       <c r="R47" t="n">
         <v>0.4196711877282212</v>
@@ -4213,7 +4213,7 @@
         <v>322.9280303030303</v>
       </c>
       <c r="M48" t="n">
-        <v>19.67525354469729</v>
+        <v>19.6752535446973</v>
       </c>
       <c r="N48" t="n">
         <v>8.860483870967741</v>
@@ -4228,19 +4228,19 @@
         <v>0.7958647119384074</v>
       </c>
       <c r="R48" t="n">
-        <v>0.4384216332337696</v>
+        <v>0.4384216332337695</v>
       </c>
       <c r="S48" t="n">
         <v>0.6921098003278955</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0352049058171427</v>
+        <v>0.03520490581714269</v>
       </c>
       <c r="U48" t="n">
         <v>0.02155671229422802</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01364819352291468</v>
+        <v>0.01364819352291467</v>
       </c>
       <c r="W48" t="n">
         <v>273</v>
@@ -4377,10 +4377,10 @@
         <v>24.9</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.6588406030462127</v>
+        <v>0.6588406030462128</v>
       </c>
       <c r="R50" t="n">
-        <v>0.472998561560815</v>
+        <v>0.4729985615608149</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -4396,7 +4396,7 @@
         <v>5.13</v>
       </c>
       <c r="Z50" t="n">
-        <v>51282.83530622923</v>
+        <v>51282.83530622922</v>
       </c>
     </row>
     <row r="51">
@@ -4431,10 +4431,10 @@
         <v>10989</v>
       </c>
       <c r="I51" t="n">
-        <v>17.97625309347459</v>
+        <v>17.9762530934746</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3145975014713791</v>
+        <v>0.314597501471379</v>
       </c>
       <c r="K51" t="n">
         <v>1.822091431376184</v>
@@ -4456,7 +4456,7 @@
         <v>0.7408030906071222</v>
       </c>
       <c r="R51" t="n">
-        <v>0.4246709708329273</v>
+        <v>0.424670970832927</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
@@ -4472,7 +4472,7 @@
         <v>5.13</v>
       </c>
       <c r="Z51" t="n">
-        <v>34651.48226719588</v>
+        <v>34651.48226719585</v>
       </c>
     </row>
     <row r="52">
@@ -4507,10 +4507,10 @@
         <v>16347.75</v>
       </c>
       <c r="I52" t="n">
-        <v>16.77016917536357</v>
+        <v>16.77016917536358</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3392881252903102</v>
+        <v>0.33928812529031</v>
       </c>
       <c r="K52" t="n">
         <v>1.712372106412916</v>
@@ -4529,10 +4529,10 @@
         <v>30.545</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.7117598908588553</v>
+        <v>0.7117598908588554</v>
       </c>
       <c r="R52" t="n">
-        <v>0.4763098239510975</v>
+        <v>0.4763098239510972</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -4548,7 +4548,7 @@
         <v>7.026875</v>
       </c>
       <c r="Z52" t="n">
-        <v>61088.37579710694</v>
+        <v>61088.37579710691</v>
       </c>
     </row>
     <row r="53">
@@ -4583,10 +4583,10 @@
         <v>8216.799999999999</v>
       </c>
       <c r="I53" t="n">
-        <v>18.16621531661354</v>
+        <v>18.16621531661355</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3113135990720869</v>
+        <v>0.3113135990720868</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
@@ -4622,7 +4622,7 @@
         <v>4.762</v>
       </c>
       <c r="Z53" t="n">
-        <v>49755.49877845949</v>
+        <v>49755.49877845948</v>
       </c>
     </row>
     <row r="54">
@@ -4850,7 +4850,7 @@
         <v>0.6081109382651159</v>
       </c>
       <c r="R57" t="n">
-        <v>0.5103718988149327</v>
+        <v>0.5103718988149326</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -5436,7 +5436,7 @@
         <v>16.99770822716683</v>
       </c>
       <c r="J67" t="n">
-        <v>0.3327206303053079</v>
+        <v>0.3327206303053078</v>
       </c>
       <c r="K67" t="n">
         <v>1.340189934684793</v>
@@ -5453,10 +5453,10 @@
         <v>32.87</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.7458748318947507</v>
+        <v>0.7458748318947509</v>
       </c>
       <c r="R67" t="n">
-        <v>0.4460862698857084</v>
+        <v>0.4460862698857082</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
@@ -5472,7 +5472,7 @@
         <v>4.74</v>
       </c>
       <c r="Z67" t="n">
-        <v>63894.06446530207</v>
+        <v>63894.06446530205</v>
       </c>
     </row>
     <row r="68">
@@ -5647,7 +5647,7 @@
         <v>13979</v>
       </c>
       <c r="I70" t="n">
-        <v>22.88492472710245</v>
+        <v>22.88492472710246</v>
       </c>
       <c r="J70" t="n">
         <v>0.2472409829726473</v>
@@ -5711,7 +5711,7 @@
         <v>144782</v>
       </c>
       <c r="I71" t="n">
-        <v>17.17456583460847</v>
+        <v>17.17456583460849</v>
       </c>
       <c r="J71" t="n">
         <v>0.329294025279972</v>
@@ -5723,7 +5723,7 @@
         <v>317.4756097560976</v>
       </c>
       <c r="M71" t="n">
-        <v>17.18295849059495</v>
+        <v>17.18295849059496</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5746,7 +5746,7 @@
         <v>4.8</v>
       </c>
       <c r="Z71" t="n">
-        <v>160911.0912490309</v>
+        <v>160911.0912490308</v>
       </c>
     </row>
     <row r="72">
